--- a/presentations/sampling/sampling_Excel_example1.xlsx
+++ b/presentations/sampling/sampling_Excel_example1.xlsx
@@ -1047,6 +1047,51 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1092,51 +1137,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,7 +1235,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1315,11 +1314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189658256"/>
-        <c:axId val="189658640"/>
+        <c:axId val="182984872"/>
+        <c:axId val="182985656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189658256"/>
+        <c:axId val="182984872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,14 +1340,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189658640"/>
+        <c:crossAx val="182985656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1356,7 +1354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189658640"/>
+        <c:axId val="182985656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,21 +1376,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189658256"/>
+        <c:crossAx val="182984872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1571,11 +1567,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191011256"/>
-        <c:axId val="191011648"/>
+        <c:axId val="250025280"/>
+        <c:axId val="250025672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191011256"/>
+        <c:axId val="250025280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -1586,12 +1582,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191011648"/>
+        <c:crossAx val="250025672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191011648"/>
+        <c:axId val="250025672"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1620,7 +1616,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191011256"/>
+        <c:crossAx val="250025280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1935,11 +1931,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191012432"/>
-        <c:axId val="191012824"/>
+        <c:axId val="250026456"/>
+        <c:axId val="250026848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191012432"/>
+        <c:axId val="250026456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,12 +1963,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191012824"/>
+        <c:crossAx val="250026848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191012824"/>
+        <c:axId val="250026848"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2001,7 +1997,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191012432"/>
+        <c:crossAx val="250026456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2132,8 +2128,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191434040"/>
-        <c:axId val="191434432"/>
+        <c:axId val="250027632"/>
+        <c:axId val="250182576"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2228,11 +2224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191435216"/>
-        <c:axId val="191434824"/>
+        <c:axId val="250183360"/>
+        <c:axId val="250182968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191434040"/>
+        <c:axId val="250027632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -2261,12 +2257,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191434432"/>
+        <c:crossAx val="250182576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191434432"/>
+        <c:axId val="250182576"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2295,12 +2291,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191434040"/>
+        <c:crossAx val="250027632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191434824"/>
+        <c:axId val="250182968"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2310,12 +2306,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191435216"/>
+        <c:crossAx val="250183360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191435216"/>
+        <c:axId val="250183360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,7 +2339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191434824"/>
+        <c:crossAx val="250182968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2532,11 +2528,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191436000"/>
-        <c:axId val="191436392"/>
+        <c:axId val="250184144"/>
+        <c:axId val="250184536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191436000"/>
+        <c:axId val="250184144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,12 +2542,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191436392"/>
+        <c:crossAx val="250184536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191436392"/>
+        <c:axId val="250184536"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2562,7 +2558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191436000"/>
+        <c:crossAx val="250184144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2613,7 +2609,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2694,11 +2689,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="189888560"/>
-        <c:axId val="189893040"/>
+        <c:axId val="182986440"/>
+        <c:axId val="182986832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189888560"/>
+        <c:axId val="182986440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2720,14 +2715,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189893040"/>
+        <c:crossAx val="182986832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2735,7 +2729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189893040"/>
+        <c:axId val="182986832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,21 +2751,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189888560"/>
+        <c:crossAx val="182986440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2816,7 +2808,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2890,11 +2881,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="190076120"/>
-        <c:axId val="189623784"/>
+        <c:axId val="182987616"/>
+        <c:axId val="182988008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190076120"/>
+        <c:axId val="182987616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2916,14 +2907,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189623784"/>
+        <c:crossAx val="182988008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2931,7 +2921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189623784"/>
+        <c:axId val="182988008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2953,21 +2943,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190076120"/>
+        <c:crossAx val="182987616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3012,7 +3000,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3126,11 +3113,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189927384"/>
-        <c:axId val="189913056"/>
+        <c:axId val="249307648"/>
+        <c:axId val="249308040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189927384"/>
+        <c:axId val="249307648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3152,14 +3139,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189913056"/>
+        <c:crossAx val="249308040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3167,7 +3153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189913056"/>
+        <c:axId val="249308040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3189,21 +3175,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189927384"/>
+        <c:crossAx val="249307648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3366,11 +3350,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="190843776"/>
-        <c:axId val="190844160"/>
+        <c:axId val="249308824"/>
+        <c:axId val="249309216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190843776"/>
+        <c:axId val="249308824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3390,7 +3374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190844160"/>
+        <c:crossAx val="249309216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3398,7 +3382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190844160"/>
+        <c:axId val="249309216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3409,7 +3393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190843776"/>
+        <c:crossAx val="249308824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3540,16 +3524,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
@@ -3558,16 +3542,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3582,11 +3566,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="190504112"/>
-        <c:axId val="190582840"/>
+        <c:axId val="249310392"/>
+        <c:axId val="249310784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190504112"/>
+        <c:axId val="249310392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3606,7 +3590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190582840"/>
+        <c:crossAx val="249310784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3614,7 +3598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190582840"/>
+        <c:axId val="249310784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3625,7 +3609,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190504112"/>
+        <c:crossAx val="249310392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3850,8 +3834,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="190561296"/>
-        <c:axId val="190561688"/>
+        <c:axId val="249761344"/>
+        <c:axId val="249761736"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3917,11 +3901,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190562472"/>
-        <c:axId val="190562080"/>
+        <c:axId val="249762520"/>
+        <c:axId val="249762128"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="190561296"/>
+        <c:axId val="249761344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3930,7 +3914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="190561688"/>
+        <c:crossAx val="249761736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3938,7 +3922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190561688"/>
+        <c:axId val="249761736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3949,12 +3933,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190561296"/>
+        <c:crossAx val="249761344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190562080"/>
+        <c:axId val="249762128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3965,12 +3949,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="190562472"/>
+        <c:crossAx val="249762520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190562472"/>
+        <c:axId val="249762520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3980,7 +3964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="190562080"/>
+        <c:crossAx val="249762128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4110,11 +4094,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190563256"/>
-        <c:axId val="190563648"/>
+        <c:axId val="249763304"/>
+        <c:axId val="249763696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190563256"/>
+        <c:axId val="249763304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4124,12 +4108,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190563648"/>
+        <c:crossAx val="249763696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190563648"/>
+        <c:axId val="249763696"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4140,7 +4124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190563256"/>
+        <c:crossAx val="249763304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4271,8 +4255,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190564432"/>
-        <c:axId val="191009688"/>
+        <c:axId val="249310000"/>
+        <c:axId val="249764480"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4367,11 +4351,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191010472"/>
-        <c:axId val="191010080"/>
+        <c:axId val="250024496"/>
+        <c:axId val="250024104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190564432"/>
+        <c:axId val="249310000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4399,12 +4383,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191009688"/>
+        <c:crossAx val="249764480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191009688"/>
+        <c:axId val="249764480"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4433,12 +4417,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190564432"/>
+        <c:crossAx val="249310000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191010080"/>
+        <c:axId val="250024104"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4448,12 +4432,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191010472"/>
+        <c:crossAx val="250024496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191010472"/>
+        <c:axId val="250024496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4485,7 +4469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191010080"/>
+        <c:crossAx val="250024104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5214,10 +5198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5246,8 +5230,8 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
-        <v>66</v>
+      <c r="D2" s="37">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5260,8 +5244,8 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
-        <v>67</v>
+      <c r="D3" s="37">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5274,8 +5258,8 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
-        <v>74</v>
+      <c r="D4" s="37">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5288,8 +5272,8 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>71</v>
+      <c r="D5" s="37">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5302,8 +5286,8 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
-        <v>68</v>
+      <c r="D6" s="37">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5316,7 +5300,7 @@
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="37">
         <v>67</v>
       </c>
     </row>
@@ -5330,8 +5314,8 @@
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
-        <v>64</v>
+      <c r="D8" s="37">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5344,8 +5328,8 @@
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
-        <v>73</v>
+      <c r="D9" s="37">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5358,8 +5342,8 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
-        <v>75</v>
+      <c r="D10" s="37">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5372,8 +5356,8 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2">
-        <v>68</v>
+      <c r="D11" s="37">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5386,8 +5370,8 @@
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2">
-        <v>68</v>
+      <c r="D12" s="37">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5400,8 +5384,8 @@
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2">
-        <v>66</v>
+      <c r="D13" s="37">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5414,8 +5398,8 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="2">
-        <v>69</v>
+      <c r="D14" s="37">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5428,8 +5412,8 @@
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
-        <v>65</v>
+      <c r="D15" s="37">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5442,8 +5426,8 @@
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="2">
-        <v>69</v>
+      <c r="D16" s="37">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5456,8 +5440,8 @@
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="2">
-        <v>62</v>
+      <c r="D17" s="37">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5470,8 +5454,8 @@
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="2">
-        <v>75</v>
+      <c r="D18" s="37">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5484,8 +5468,8 @@
       <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="2">
-        <v>69</v>
+      <c r="D19" s="37">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5498,8 +5482,8 @@
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="2">
-        <v>69</v>
+      <c r="D20" s="37">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5512,8 +5496,8 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="2">
-        <v>74</v>
+      <c r="D21" s="37">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5526,8 +5510,8 @@
       <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="2">
-        <v>70</v>
+      <c r="D22" s="37">
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5540,8 +5524,8 @@
       <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="2">
-        <v>69</v>
+      <c r="D23" s="37">
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5554,8 +5538,8 @@
       <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="2">
-        <v>70</v>
+      <c r="D24" s="37">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -5568,7 +5552,7 @@
       <c r="C25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="37">
         <v>71</v>
       </c>
     </row>
@@ -5582,8 +5566,58 @@
       <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="37">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="37">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="37">
         <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="37">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="37">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="37">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="37">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="37">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="37">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="37">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5610,28 +5644,28 @@
   <sheetData>
     <row r="1" spans="2:31" s="78" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="125" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="2:31" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
     </row>
     <row r="4" spans="2:31" s="78" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:31" x14ac:dyDescent="0.3">
@@ -20331,9 +20365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB59"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF2" sqref="AF2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21624,50 +21658,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="24" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="22"/>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
       <c r="T1" s="23"/>
       <c r="U1" s="21"/>
       <c r="V1" s="21"/>
-      <c r="W1" s="88" t="s">
+      <c r="W1" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
       <c r="AD1" s="22"/>
       <c r="AE1" s="22"/>
-      <c r="AF1" s="88" t="s">
+      <c r="AF1" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="88"/>
-      <c r="AJ1" s="88"/>
+      <c r="AG1" s="113"/>
+      <c r="AH1" s="113"/>
+      <c r="AI1" s="113"/>
+      <c r="AJ1" s="113"/>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
       <c r="AO1" s="22"/>
@@ -21699,10 +21733,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="26"/>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="89"/>
+      <c r="G2" s="114"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
       <c r="J2" s="28"/>
@@ -21714,10 +21748,10 @@
       <c r="N2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="89" t="s">
+      <c r="P2" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="89"/>
+      <c r="Q2" s="114"/>
       <c r="R2" s="27"/>
       <c r="S2" s="27"/>
       <c r="T2" s="31"/>
@@ -21730,10 +21764,10 @@
         <v>59</v>
       </c>
       <c r="Y2" s="34"/>
-      <c r="Z2" s="90" t="s">
+      <c r="Z2" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="90"/>
+      <c r="AA2" s="115"/>
       <c r="AB2" s="27"/>
       <c r="AC2" s="27"/>
       <c r="AD2" s="28"/>
@@ -21745,10 +21779,10 @@
         <v>59</v>
       </c>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="90" t="s">
+      <c r="AI2" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="90"/>
+      <c r="AJ2" s="115"/>
       <c r="AM2" s="28"/>
       <c r="AN2" s="28"/>
       <c r="AO2" s="28"/>
@@ -21790,13 +21824,13 @@
       <c r="I3" s="40"/>
       <c r="K3" s="40"/>
       <c r="L3" s="40"/>
-      <c r="M3" s="110" t="s">
+      <c r="M3" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
       <c r="R3" s="40"/>
       <c r="S3" s="40"/>
       <c r="U3" s="40"/>
@@ -21851,11 +21885,11 @@
         <f>LOOKUP(M4,$A$3:$A$27,$D$3:$D$27)</f>
         <v>72</v>
       </c>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112" t="s">
+      <c r="O4" s="97"/>
+      <c r="P4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="113">
+      <c r="Q4" s="98">
         <f ca="1">AVERAGE(N4:N8)</f>
         <v>69.599999999999994</v>
       </c>
@@ -21871,10 +21905,10 @@
         <v>66</v>
       </c>
       <c r="Y4" s="47"/>
-      <c r="Z4" s="101" t="s">
+      <c r="Z4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="102">
+      <c r="AA4" s="87">
         <f ca="1">AVERAGE(X4:X9)</f>
         <v>70</v>
       </c>
@@ -21888,10 +21922,10 @@
         <v>73</v>
       </c>
       <c r="AH4" s="47"/>
-      <c r="AI4" s="101" t="s">
+      <c r="AI4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AJ4" s="123">
+      <c r="AJ4" s="108">
         <f ca="1">AVERAGE(AG4:AG9)</f>
         <v>69.666666666666671</v>
       </c>
@@ -21925,11 +21959,11 @@
         <f ca="1">LOOKUP(M5,$A$3:$A$37,$D$4:$D$37)</f>
         <v>67</v>
       </c>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112" t="s">
+      <c r="O5" s="97"/>
+      <c r="P5" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="114">
+      <c r="Q5" s="99">
         <f ca="1">STDEV(N4:N8)</f>
         <v>4.3931765272977588</v>
       </c>
@@ -21945,10 +21979,10 @@
         <v>66</v>
       </c>
       <c r="Y5" s="51"/>
-      <c r="Z5" s="103" t="s">
+      <c r="Z5" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="AA5" s="104">
+      <c r="AA5" s="89">
         <f ca="1">STDEV(X4:X9)</f>
         <v>4.1833001326703778</v>
       </c>
@@ -21962,10 +21996,10 @@
         <v>72</v>
       </c>
       <c r="AH5" s="51"/>
-      <c r="AI5" s="103" t="s">
+      <c r="AI5" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="AJ5" s="124">
+      <c r="AJ5" s="109">
         <f ca="1">STDEV(AG4:AG9)</f>
         <v>3.3266599866332398</v>
       </c>
@@ -22003,8 +22037,8 @@
         <f ca="1">LOOKUP(M6,$A$3:$A$37,$D$4:$D$37)</f>
         <v>68</v>
       </c>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
       <c r="Q6" s="52"/>
       <c r="R6" s="40"/>
       <c r="S6" s="40"/>
@@ -22018,8 +22052,8 @@
         <v>71</v>
       </c>
       <c r="Y6" s="51"/>
-      <c r="Z6" s="103"/>
-      <c r="AA6" s="103"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
       <c r="AB6" s="40"/>
       <c r="AC6" s="40"/>
       <c r="AF6" s="52">
@@ -22030,8 +22064,8 @@
         <v>66</v>
       </c>
       <c r="AH6" s="51"/>
-      <c r="AI6" s="103"/>
-      <c r="AJ6" s="124"/>
+      <c r="AI6" s="88"/>
+      <c r="AJ6" s="109"/>
       <c r="AK6" s="45"/>
       <c r="AL6" s="45"/>
     </row>
@@ -22063,8 +22097,8 @@
         <f ca="1">LOOKUP(M7,$A$3:$A$37,$D$4:$D$37)</f>
         <v>76</v>
       </c>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112" t="s">
+      <c r="O7" s="97"/>
+      <c r="P7" s="97" t="s">
         <v>68</v>
       </c>
       <c r="Q7" s="52">
@@ -22079,10 +22113,10 @@
         <v>76</v>
       </c>
       <c r="Y7" s="51"/>
-      <c r="Z7" s="103" t="s">
+      <c r="Z7" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="AA7" s="103">
+      <c r="AA7" s="88">
         <f ca="1">MEDIAN(X4:X9)</f>
         <v>71</v>
       </c>
@@ -22094,10 +22128,10 @@
         <v>71</v>
       </c>
       <c r="AH7" s="51"/>
-      <c r="AI7" s="103" t="s">
+      <c r="AI7" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="AJ7" s="124">
+      <c r="AJ7" s="109">
         <f ca="1">MEDIAN(AG4:AG9)</f>
         <v>71</v>
       </c>
@@ -22125,8 +22159,8 @@
         <f ca="1">LOOKUP(M8,$A$3:$A$37,$D$4:$D$37)</f>
         <v>65</v>
       </c>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
       <c r="Q8" s="52"/>
       <c r="W8" s="50">
         <v>25</v>
@@ -22136,8 +22170,8 @@
         <v>71</v>
       </c>
       <c r="Y8" s="51"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
       <c r="AF8" s="52">
         <v>29</v>
       </c>
@@ -22146,8 +22180,8 @@
         <v>65</v>
       </c>
       <c r="AH8" s="51"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="103"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
       <c r="AK8" s="45"/>
       <c r="AL8" s="45"/>
     </row>
@@ -22166,15 +22200,15 @@
       </c>
       <c r="E9" s="38"/>
       <c r="M9" s="52"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
       <c r="Q9" s="52"/>
       <c r="W9" s="45"/>
       <c r="X9" s="45"/>
       <c r="Y9" s="45"/>
-      <c r="Z9" s="105"/>
-      <c r="AA9" s="105"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
       <c r="AF9" s="52">
         <v>30</v>
       </c>
@@ -22183,8 +22217,8 @@
         <v>71</v>
       </c>
       <c r="AH9" s="51"/>
-      <c r="AI9" s="103"/>
-      <c r="AJ9" s="103"/>
+      <c r="AI9" s="88"/>
+      <c r="AJ9" s="88"/>
       <c r="AK9" s="45"/>
       <c r="AL9" s="45"/>
     </row>
@@ -22203,20 +22237,20 @@
       </c>
       <c r="E10" s="38"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
       <c r="Q10" s="52"/>
       <c r="W10" s="45"/>
       <c r="X10" s="45"/>
       <c r="Y10" s="45"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="105"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
       <c r="AF10" s="51"/>
       <c r="AG10" s="51"/>
       <c r="AH10" s="51"/>
-      <c r="AI10" s="103"/>
-      <c r="AJ10" s="103"/>
+      <c r="AI10" s="88"/>
+      <c r="AJ10" s="88"/>
       <c r="AK10" s="45"/>
       <c r="AL10" s="45"/>
     </row>
@@ -22234,20 +22268,20 @@
         <v>72</v>
       </c>
       <c r="E11" s="38"/>
-      <c r="M11" s="115" t="s">
+      <c r="M11" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="117"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="102"/>
       <c r="W11" s="54" t="s">
         <v>70</v>
       </c>
       <c r="X11" s="55"/>
       <c r="Y11" s="55"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91"/>
       <c r="AF11" s="43" t="s">
         <v>173</v>
       </c>
@@ -22274,19 +22308,19 @@
       <c r="E12" s="38"/>
       <c r="M12" s="48">
         <f ca="1">RANDBETWEEN(1,35)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N12" s="48">
         <f t="shared" ref="N12:N16" ca="1" si="2">LOOKUP(M12,$A$3:$A$37,$D$4:$D$37)</f>
-        <v>65</v>
-      </c>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" s="119">
+      <c r="Q12" s="104">
         <f ca="1">AVERAGE(N12:N16)</f>
-        <v>55.4</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="W12" s="57">
         <v>2</v>
@@ -22296,10 +22330,10 @@
         <v>73</v>
       </c>
       <c r="Y12" s="58"/>
-      <c r="Z12" s="107" t="s">
+      <c r="Z12" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="AA12" s="108">
+      <c r="AA12" s="93">
         <f ca="1">AVERAGE(X12:X17)</f>
         <v>66.5</v>
       </c>
@@ -22315,10 +22349,10 @@
       </c>
       <c r="AI12" s="49"/>
       <c r="AJ12" s="47"/>
-      <c r="AK12" s="101" t="s">
+      <c r="AK12" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AL12" s="102">
+      <c r="AL12" s="87">
         <f ca="1">AVERAGE(AI13:AI18)</f>
         <v>68.833333333333343</v>
       </c>
@@ -22339,19 +22373,19 @@
       <c r="E13" s="38"/>
       <c r="M13" s="52">
         <f t="shared" ref="M13:M16" ca="1" si="5">RANDBETWEEN(1,35)</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N13" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="Q13" s="114">
+      <c r="Q13" s="99">
         <f ca="1">STDEV(N12:N16)</f>
-        <v>31.165686259089501</v>
+        <v>3.7815340802378072</v>
       </c>
       <c r="W13" s="46">
         <v>6</v>
@@ -22361,10 +22395,10 @@
         <v>69</v>
       </c>
       <c r="Y13" s="47"/>
-      <c r="Z13" s="101" t="s">
+      <c r="Z13" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="AA13" s="109">
+      <c r="AA13" s="94">
         <f ca="1">STDEV(X12:X17)</f>
         <v>3.9370039370059056</v>
       </c>
@@ -22383,10 +22417,10 @@
         <v>68</v>
       </c>
       <c r="AJ13" s="51"/>
-      <c r="AK13" s="103" t="s">
+      <c r="AK13" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="AL13" s="104">
+      <c r="AL13" s="89">
         <f ca="1">STDEV(AI12:AI22)</f>
         <v>1.1785113019775826</v>
       </c>
@@ -22407,14 +22441,14 @@
       <c r="E14" s="59"/>
       <c r="M14" s="52">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N14" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
+        <v>66</v>
+      </c>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
       <c r="Q14" s="52"/>
       <c r="W14" s="50">
         <v>10</v>
@@ -22424,8 +22458,8 @@
         <v>66</v>
       </c>
       <c r="Y14" s="51"/>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
       <c r="AF14" s="52">
         <v>9</v>
       </c>
@@ -22436,8 +22470,8 @@
       <c r="AH14" s="51"/>
       <c r="AI14" s="53"/>
       <c r="AJ14" s="51"/>
-      <c r="AK14" s="103"/>
-      <c r="AL14" s="103"/>
+      <c r="AK14" s="88"/>
+      <c r="AL14" s="88"/>
     </row>
     <row r="15" spans="1:54" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
@@ -22457,19 +22491,19 @@
       </c>
       <c r="M15" s="52">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N15" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97" t="s">
         <v>68</v>
       </c>
       <c r="Q15" s="52">
         <f ca="1">MEDIAN(N12:N16)</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W15" s="50">
         <v>14</v>
@@ -22479,10 +22513,10 @@
         <v>65</v>
       </c>
       <c r="Y15" s="51"/>
-      <c r="Z15" s="103" t="s">
+      <c r="Z15" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="103">
+      <c r="AA15" s="88">
         <f ca="1">MEDIAN(X12:X17)</f>
         <v>65.5</v>
       </c>
@@ -22496,10 +22530,10 @@
       <c r="AH15" s="51"/>
       <c r="AI15" s="53"/>
       <c r="AJ15" s="51"/>
-      <c r="AK15" s="103" t="s">
+      <c r="AK15" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="AL15" s="125">
+      <c r="AL15" s="110">
         <f ca="1">MEDIAN(AI12:AI22)</f>
         <v>68.833333333333343</v>
       </c>
@@ -22520,14 +22554,14 @@
       <c r="E16" s="59"/>
       <c r="M16" s="52">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="N16" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
+        <v>71</v>
+      </c>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
       <c r="Q16" s="52"/>
       <c r="W16" s="50">
         <v>18</v>
@@ -22537,8 +22571,8 @@
         <v>62</v>
       </c>
       <c r="Y16" s="51"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="88"/>
       <c r="AF16" s="52">
         <v>11</v>
       </c>
@@ -22549,8 +22583,8 @@
       <c r="AH16" s="51"/>
       <c r="AI16" s="53"/>
       <c r="AJ16" s="51"/>
-      <c r="AK16" s="103"/>
-      <c r="AL16" s="103"/>
+      <c r="AK16" s="88"/>
+      <c r="AL16" s="88"/>
     </row>
     <row r="17" spans="1:38" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
@@ -22566,13 +22600,13 @@
         <v>65</v>
       </c>
       <c r="E17" s="59"/>
-      <c r="M17" s="120" t="s">
+      <c r="M17" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="117"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="102"/>
       <c r="W17" s="50">
         <v>22</v>
       </c>
@@ -22581,8 +22615,8 @@
         <v>64</v>
       </c>
       <c r="Y17" s="51"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
+      <c r="Z17" s="88"/>
+      <c r="AA17" s="88"/>
       <c r="AF17" s="52">
         <v>12</v>
       </c>
@@ -22595,8 +22629,8 @@
       </c>
       <c r="AI17" s="53"/>
       <c r="AJ17" s="51"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="103"/>
+      <c r="AK17" s="88"/>
+      <c r="AL17" s="88"/>
     </row>
     <row r="18" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
@@ -22614,25 +22648,25 @@
       <c r="E18" s="38"/>
       <c r="M18" s="48">
         <f ca="1">RANDBETWEEN(1,35)</f>
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N18" s="48">
         <f t="shared" ref="N18:N22" ca="1" si="6">LOOKUP(M18,$A$3:$A$37,$D$4:$D$37)</f>
-        <v>65</v>
-      </c>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="Q18" s="119">
+      <c r="Q18" s="104">
         <f ca="1">AVERAGE(N18:N22)</f>
-        <v>53.2</v>
+        <v>70.8</v>
       </c>
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
       <c r="Y18" s="51"/>
-      <c r="Z18" s="103"/>
-      <c r="AA18" s="103"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
       <c r="AF18" s="52">
         <v>25</v>
       </c>
@@ -22648,8 +22682,8 @@
         <v>69.666666666666671</v>
       </c>
       <c r="AJ18" s="51"/>
-      <c r="AK18" s="103"/>
-      <c r="AL18" s="103"/>
+      <c r="AK18" s="88"/>
+      <c r="AL18" s="88"/>
     </row>
     <row r="19" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
@@ -22667,19 +22701,19 @@
       <c r="E19" s="38"/>
       <c r="M19" s="52">
         <f t="shared" ref="M19:M22" ca="1" si="7">RANDBETWEEN(1,35)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N19" s="52">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="Q19" s="114">
+      <c r="Q19" s="99">
         <f ca="1">STDEV(N18:N22)</f>
-        <v>29.911536236041101</v>
+        <v>5.7183913821983188</v>
       </c>
       <c r="Z19" s="39"/>
       <c r="AA19" s="39"/>
@@ -22693,8 +22727,8 @@
       <c r="AH19" s="51"/>
       <c r="AI19" s="51"/>
       <c r="AJ19" s="51"/>
-      <c r="AK19" s="103"/>
-      <c r="AL19" s="103"/>
+      <c r="AK19" s="88"/>
+      <c r="AL19" s="88"/>
     </row>
     <row r="20" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35">
@@ -22712,14 +22746,14 @@
       <c r="E20" s="38"/>
       <c r="M20" s="52">
         <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="N20" s="52">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
+        <v>61</v>
+      </c>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
       <c r="Q20" s="52"/>
       <c r="AF20" s="52">
         <v>27</v>
@@ -22731,8 +22765,8 @@
       <c r="AH20" s="51"/>
       <c r="AI20" s="51"/>
       <c r="AJ20" s="51"/>
-      <c r="AK20" s="103"/>
-      <c r="AL20" s="103"/>
+      <c r="AK20" s="88"/>
+      <c r="AL20" s="88"/>
     </row>
     <row r="21" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
@@ -22750,19 +22784,19 @@
       <c r="E21" s="38"/>
       <c r="M21" s="52">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N21" s="52">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97" t="s">
         <v>68</v>
       </c>
       <c r="Q21" s="52">
         <f ca="1">MEDIAN(N18:N22)</f>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="AF21" s="52">
         <v>28</v>
@@ -22774,8 +22808,8 @@
       <c r="AH21" s="51"/>
       <c r="AI21" s="51"/>
       <c r="AJ21" s="51"/>
-      <c r="AK21" s="103"/>
-      <c r="AL21" s="103"/>
+      <c r="AK21" s="88"/>
+      <c r="AL21" s="88"/>
     </row>
     <row r="22" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
@@ -22793,14 +22827,14 @@
       <c r="E22" s="38"/>
       <c r="M22" s="52">
         <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="N22" s="52">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
+        <v>73</v>
+      </c>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
       <c r="Q22" s="52"/>
       <c r="AF22" s="52">
         <v>29</v>
@@ -22812,8 +22846,8 @@
       <c r="AH22" s="51"/>
       <c r="AI22" s="51"/>
       <c r="AJ22" s="51"/>
-      <c r="AK22" s="103"/>
-      <c r="AL22" s="103"/>
+      <c r="AK22" s="88"/>
+      <c r="AL22" s="88"/>
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
@@ -22829,11 +22863,11 @@
         <v>76</v>
       </c>
       <c r="E23" s="38"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="122"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="107"/>
       <c r="AF23" s="52">
         <v>30</v>
       </c>
@@ -22844,8 +22878,8 @@
       <c r="AH23" s="51"/>
       <c r="AI23" s="51"/>
       <c r="AJ23" s="51"/>
-      <c r="AK23" s="103"/>
-      <c r="AL23" s="103"/>
+      <c r="AK23" s="88"/>
+      <c r="AL23" s="88"/>
     </row>
     <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35">
@@ -22861,11 +22895,11 @@
         <v>74</v>
       </c>
       <c r="E24" s="38"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="121"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
       <c r="AF24" s="45"/>
       <c r="AG24" s="45"/>
       <c r="AH24" s="45"/>
@@ -22888,11 +22922,11 @@
         <v>64</v>
       </c>
       <c r="E25" s="38"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
       <c r="AF25" s="45"/>
       <c r="AG25" s="45"/>
       <c r="AH25" s="45"/>
@@ -22915,11 +22949,11 @@
         <v>71</v>
       </c>
       <c r="E26" s="38"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="121"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
     </row>
     <row r="27" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
@@ -22935,11 +22969,11 @@
         <v>73</v>
       </c>
       <c r="E27" s="38"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="121"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
     </row>
     <row r="28" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
@@ -22955,11 +22989,11 @@
         <v>71</v>
       </c>
       <c r="E28" s="38"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="121"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
     </row>
     <row r="29" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
@@ -22975,11 +23009,11 @@
         <v>72</v>
       </c>
       <c r="E29" s="38"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="121"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
     </row>
     <row r="30" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
@@ -22995,11 +23029,11 @@
         <v>66</v>
       </c>
       <c r="E30" s="38"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="121"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
     </row>
     <row r="31" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
@@ -23015,11 +23049,11 @@
         <v>71</v>
       </c>
       <c r="E31" s="38"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
     </row>
     <row r="32" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35">
@@ -23035,11 +23069,11 @@
         <v>65</v>
       </c>
       <c r="E32" s="38"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="121"/>
+      <c r="M32" s="106"/>
+      <c r="N32" s="106"/>
+      <c r="O32" s="106"/>
+      <c r="P32" s="106"/>
+      <c r="Q32" s="106"/>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
@@ -23055,11 +23089,11 @@
         <v>71</v>
       </c>
       <c r="E33" s="38"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="121"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="121"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="106"/>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35">
@@ -23075,11 +23109,11 @@
         <v>71</v>
       </c>
       <c r="E34" s="38"/>
-      <c r="M34" s="121"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="121"/>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="121"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="106"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
@@ -23095,11 +23129,11 @@
         <v>65</v>
       </c>
       <c r="E35" s="38"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="121"/>
-      <c r="P35" s="121"/>
-      <c r="Q35" s="121"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35">
@@ -23115,11 +23149,11 @@
         <v>63</v>
       </c>
       <c r="E36" s="38"/>
-      <c r="M36" s="121"/>
-      <c r="N36" s="121"/>
-      <c r="O36" s="121"/>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="121"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="106"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="106"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
@@ -23135,11 +23169,11 @@
         <v>72</v>
       </c>
       <c r="E37" s="38"/>
-      <c r="M37" s="121"/>
-      <c r="N37" s="121"/>
-      <c r="O37" s="121"/>
-      <c r="P37" s="121"/>
-      <c r="Q37" s="121"/>
+      <c r="M37" s="106"/>
+      <c r="N37" s="106"/>
+      <c r="O37" s="106"/>
+      <c r="P37" s="106"/>
+      <c r="Q37" s="106"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
@@ -23147,11 +23181,11 @@
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="38"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="121"/>
-      <c r="O38" s="121"/>
-      <c r="P38" s="121"/>
-      <c r="Q38" s="121"/>
+      <c r="M38" s="106"/>
+      <c r="N38" s="106"/>
+      <c r="O38" s="106"/>
+      <c r="P38" s="106"/>
+      <c r="Q38" s="106"/>
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
@@ -23159,11 +23193,11 @@
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="38"/>
-      <c r="M39" s="121"/>
-      <c r="N39" s="121"/>
-      <c r="O39" s="121"/>
-      <c r="P39" s="121"/>
-      <c r="Q39" s="121"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="106"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="106"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
@@ -23171,11 +23205,11 @@
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="38"/>
-      <c r="M40" s="121"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="121"/>
-      <c r="P40" s="121"/>
-      <c r="Q40" s="121"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="106"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="106"/>
+      <c r="Q40" s="106"/>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
@@ -23183,11 +23217,11 @@
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="38"/>
-      <c r="M41" s="121"/>
-      <c r="N41" s="121"/>
-      <c r="O41" s="121"/>
-      <c r="P41" s="121"/>
-      <c r="Q41" s="121"/>
+      <c r="M41" s="106"/>
+      <c r="N41" s="106"/>
+      <c r="O41" s="106"/>
+      <c r="P41" s="106"/>
+      <c r="Q41" s="106"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
@@ -23195,11 +23229,11 @@
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="38"/>
-      <c r="M42" s="121"/>
-      <c r="N42" s="121"/>
-      <c r="O42" s="121"/>
-      <c r="P42" s="121"/>
-      <c r="Q42" s="121"/>
+      <c r="M42" s="106"/>
+      <c r="N42" s="106"/>
+      <c r="O42" s="106"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="106"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
@@ -23207,11 +23241,11 @@
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="38"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="121"/>
+      <c r="M43" s="106"/>
+      <c r="N43" s="106"/>
+      <c r="O43" s="106"/>
+      <c r="P43" s="106"/>
+      <c r="Q43" s="106"/>
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
@@ -23219,11 +23253,11 @@
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="38"/>
-      <c r="M44" s="121"/>
-      <c r="N44" s="121"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="121"/>
-      <c r="Q44" s="121"/>
+      <c r="M44" s="106"/>
+      <c r="N44" s="106"/>
+      <c r="O44" s="106"/>
+      <c r="P44" s="106"/>
+      <c r="Q44" s="106"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
@@ -23231,11 +23265,11 @@
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="38"/>
-      <c r="M45" s="121"/>
-      <c r="N45" s="121"/>
-      <c r="O45" s="121"/>
-      <c r="P45" s="121"/>
-      <c r="Q45" s="121"/>
+      <c r="M45" s="106"/>
+      <c r="N45" s="106"/>
+      <c r="O45" s="106"/>
+      <c r="P45" s="106"/>
+      <c r="Q45" s="106"/>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
@@ -23243,11 +23277,11 @@
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="38"/>
-      <c r="M46" s="121"/>
-      <c r="N46" s="121"/>
-      <c r="O46" s="121"/>
-      <c r="P46" s="121"/>
-      <c r="Q46" s="121"/>
+      <c r="M46" s="106"/>
+      <c r="N46" s="106"/>
+      <c r="O46" s="106"/>
+      <c r="P46" s="106"/>
+      <c r="Q46" s="106"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
@@ -23255,11 +23289,11 @@
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="38"/>
-      <c r="M47" s="121"/>
-      <c r="N47" s="121"/>
-      <c r="O47" s="121"/>
-      <c r="P47" s="121"/>
-      <c r="Q47" s="121"/>
+      <c r="M47" s="106"/>
+      <c r="N47" s="106"/>
+      <c r="O47" s="106"/>
+      <c r="P47" s="106"/>
+      <c r="Q47" s="106"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
@@ -23267,11 +23301,11 @@
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="38"/>
-      <c r="M48" s="121"/>
-      <c r="N48" s="121"/>
-      <c r="O48" s="121"/>
-      <c r="P48" s="121"/>
-      <c r="Q48" s="121"/>
+      <c r="M48" s="106"/>
+      <c r="N48" s="106"/>
+      <c r="O48" s="106"/>
+      <c r="P48" s="106"/>
+      <c r="Q48" s="106"/>
     </row>
     <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
@@ -23279,11 +23313,11 @@
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
       <c r="E49" s="38"/>
-      <c r="M49" s="121"/>
-      <c r="N49" s="121"/>
-      <c r="O49" s="121"/>
-      <c r="P49" s="121"/>
-      <c r="Q49" s="121"/>
+      <c r="M49" s="106"/>
+      <c r="N49" s="106"/>
+      <c r="O49" s="106"/>
+      <c r="P49" s="106"/>
+      <c r="Q49" s="106"/>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
@@ -23291,11 +23325,11 @@
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="38"/>
-      <c r="M50" s="121"/>
-      <c r="N50" s="121"/>
-      <c r="O50" s="121"/>
-      <c r="P50" s="121"/>
-      <c r="Q50" s="121"/>
+      <c r="M50" s="106"/>
+      <c r="N50" s="106"/>
+      <c r="O50" s="106"/>
+      <c r="P50" s="106"/>
+      <c r="Q50" s="106"/>
     </row>
     <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
@@ -23303,11 +23337,11 @@
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="38"/>
-      <c r="M51" s="121"/>
-      <c r="N51" s="121"/>
-      <c r="O51" s="121"/>
-      <c r="P51" s="121"/>
-      <c r="Q51" s="121"/>
+      <c r="M51" s="106"/>
+      <c r="N51" s="106"/>
+      <c r="O51" s="106"/>
+      <c r="P51" s="106"/>
+      <c r="Q51" s="106"/>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
@@ -23331,42 +23365,42 @@
       <c r="E54" s="38"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="86" t="s">
+      <c r="A56" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="111"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="86"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
+      <c r="A57" s="111"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="111"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="86"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="86"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
+      <c r="A59" s="111"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -25948,7 +25982,7 @@
       </c>
       <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.47356723723590244</v>
+        <v>3.2440168711435957E-2</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>19</v>
@@ -25961,7 +25995,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B51" ca="1" si="0">RAND()</f>
-        <v>0.41536034956490608</v>
+        <v>0.95387308604436405</v>
       </c>
       <c r="D3" s="7">
         <v>0.1</v>
@@ -25974,7 +26008,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28894693982148167</v>
+        <v>9.7165596280061717E-2</v>
       </c>
       <c r="D4" s="7">
         <v>0.2</v>
@@ -25987,7 +26021,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49664467536114898</v>
+        <v>0.64056535116523639</v>
       </c>
       <c r="D5" s="7">
         <v>0.3</v>
@@ -26000,7 +26034,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84145432273605192</v>
+        <v>0.58051361637279963</v>
       </c>
       <c r="D6" s="7">
         <v>0.4</v>
@@ -26013,7 +26047,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66203549488150903</v>
+        <v>0.5097463953884116</v>
       </c>
       <c r="D7" s="7">
         <v>0.5</v>
@@ -26026,7 +26060,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87770094986710023</v>
+        <v>2.5235720027872888E-2</v>
       </c>
       <c r="D8" s="7">
         <v>0.6</v>
@@ -26039,7 +26073,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42243499008712804</v>
+        <v>0.58833156808764542</v>
       </c>
       <c r="D9" s="7">
         <v>0.7</v>
@@ -26052,7 +26086,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85324717651483428</v>
+        <v>0.14307805357374637</v>
       </c>
       <c r="D10" s="7">
         <v>0.8</v>
@@ -26065,7 +26099,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79951695941728251</v>
+        <v>0.33385308281862591</v>
       </c>
       <c r="D11" s="7">
         <v>0.9</v>
@@ -26078,7 +26112,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93565969719372288</v>
+        <v>0.11755768939063271</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -26087,7 +26121,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13894279683309219</v>
+        <v>0.18481500386992267</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>19</v>
@@ -26102,7 +26136,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78449656641338106</v>
+        <v>0.51453947882748596</v>
       </c>
       <c r="D14" s="62">
         <v>0.1</v>
@@ -26117,7 +26151,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40126160132340827</v>
+        <v>0.20167125916863737</v>
       </c>
       <c r="D15" s="62">
         <v>0.2</v>
@@ -26132,7 +26166,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.208923686703818</v>
+        <v>0.52039609084520477</v>
       </c>
       <c r="D16" s="62">
         <v>0.3</v>
@@ -26147,7 +26181,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86993052293901107</v>
+        <v>0.63539328345234458</v>
       </c>
       <c r="D17" s="62">
         <v>0.4</v>
@@ -26162,7 +26196,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3420922952455443</v>
+        <v>0.23951629039691102</v>
       </c>
       <c r="D18" s="62">
         <v>0.5</v>
@@ -26177,7 +26211,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98476130417310814</v>
+        <v>0.98485048702896139</v>
       </c>
       <c r="D19" s="62">
         <v>0.6</v>
@@ -26192,7 +26226,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62398123977372777</v>
+        <v>0.90241507903532714</v>
       </c>
       <c r="D20" s="62">
         <v>0.7</v>
@@ -26207,7 +26241,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2535544514384066</v>
+        <v>0.5004968514318231</v>
       </c>
       <c r="D21" s="62">
         <v>0.8</v>
@@ -26222,7 +26256,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12223758917343508</v>
+        <v>0.32316557787856859</v>
       </c>
       <c r="D22" s="62">
         <v>0.9</v>
@@ -26237,7 +26271,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86202098867205879</v>
+        <v>0.54379856905537927</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>20</v>
@@ -26252,7 +26286,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12352942634381858</v>
+        <v>0.39654284792455841</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -26261,7 +26295,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90909513329362956</v>
+        <v>0.69943290112275991</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -26270,7 +26304,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6567908228234004</v>
+        <v>0.96418724840072345</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -26279,7 +26313,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6000701358664533</v>
+        <v>0.96014448484726234</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -26288,7 +26322,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39637653156155173</v>
+        <v>0.94098748938083654</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -26297,7 +26331,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13571839236048211</v>
+        <v>0.12196648321603221</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -26306,7 +26340,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22301827917759531</v>
+        <v>0.72694478498173243</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -26315,7 +26349,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66549296167618432</v>
+        <v>0.77313283255674436</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -26324,7 +26358,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30632412725971336</v>
+        <v>0.94301788433262823</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -26333,7 +26367,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56780499588337952</v>
+        <v>0.28890261022343899</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -26342,7 +26376,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97041032002475336</v>
+        <v>0.14741930388708302</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -26351,7 +26385,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28205414173940757</v>
+        <v>5.6525296612722764E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -26360,7 +26394,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90543821898553467</v>
+        <v>0.89198288444080565</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -26369,7 +26403,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49150267933989034</v>
+        <v>0.50968975035433961</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -26378,7 +26412,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7033314696953692E-3</v>
+        <v>0.87701829245510332</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -26387,7 +26421,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95810670973124612</v>
+        <v>0.94660259932094248</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -26396,7 +26430,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59034809660162402</v>
+        <v>0.53892664065445894</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -26405,7 +26439,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50964097646471029</v>
+        <v>0.17946683176010436</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -26414,7 +26448,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18857963866786231</v>
+        <v>0.11759101032826003</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -26423,7 +26457,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63545333140133364</v>
+        <v>0.78437147424117892</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -26432,7 +26466,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10911019846605163</v>
+        <v>0.12494967391202205</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -26441,7 +26475,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35885670735779074</v>
+        <v>0.89533752412244583</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -26450,7 +26484,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40911097207714742</v>
+        <v>0.97916788417857947</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -26459,7 +26493,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90072395996104437</v>
+        <v>0.76929729422512949</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -26468,7 +26502,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56425964074627266</v>
+        <v>0.94577555964138993</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -26477,7 +26511,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90621053268278884</v>
+        <v>0.64286370392611414</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -26486,7 +26520,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91400648458270528</v>
+        <v>0.76517428532750975</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -26495,7 +26529,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11769329634757442</v>
+        <v>0.10871321318740979</v>
       </c>
     </row>
   </sheetData>
@@ -26534,27 +26568,27 @@
     </row>
     <row r="2" spans="1:27" s="64" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="72"/>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="121"/>
       <c r="I3" s="64"/>
       <c r="J3" s="64"/>
       <c r="K3" s="64"/>
@@ -26611,10 +26645,10 @@
         <v>96</v>
       </c>
       <c r="D5" s="64"/>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="98"/>
+      <c r="F5" s="123"/>
       <c r="G5" s="67" t="s">
         <v>97</v>
       </c>
@@ -28499,16 +28533,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
       <c r="I1" s="64"/>
       <c r="J1" s="64"/>
       <c r="K1" s="64"/>
@@ -28530,14 +28564,14 @@
       <c r="AA1" s="64"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
       <c r="K2" s="64"/>
@@ -28596,10 +28630,10 @@
         <v>96</v>
       </c>
       <c r="D4" s="64"/>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="98"/>
+      <c r="F4" s="123"/>
       <c r="G4" s="67" t="s">
         <v>97</v>
       </c>
@@ -28633,7 +28667,7 @@
       </c>
       <c r="C5" s="68">
         <f ca="1">RAND()</f>
-        <v>0.87628610293963161</v>
+        <v>0.6768667755236113</v>
       </c>
       <c r="D5" s="64"/>
       <c r="E5" s="68">
@@ -28648,7 +28682,7 @@
       </c>
       <c r="H5" s="69">
         <f ca="1">COUNTIFS(C5:C54,"&lt;" &amp; F5,C5:C54,"&gt;" &amp; E5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="64"/>
       <c r="J5" s="64"/>
@@ -28677,7 +28711,7 @@
       </c>
       <c r="C6" s="68">
         <f t="shared" ref="C6:C54" ca="1" si="0">RAND()</f>
-        <v>0.7534232845932981</v>
+        <v>0.83978811524267738</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="68">
@@ -28692,7 +28726,7 @@
       </c>
       <c r="H6" s="69">
         <f t="shared" ref="H6:H14" ca="1" si="2">COUNTIFS(C6:C55,"&lt;" &amp; F6,C6:C55,"&gt;" &amp; E6)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I6" s="64"/>
       <c r="J6" s="64"/>
@@ -28721,7 +28755,7 @@
       </c>
       <c r="C7" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6399401114118608</v>
+        <v>0.36266515977889224</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="68">
@@ -28765,7 +28799,7 @@
       </c>
       <c r="C8" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1188346819706767</v>
+        <v>0.90021394222489237</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="68">
@@ -28780,7 +28814,7 @@
       </c>
       <c r="H8" s="69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="64"/>
       <c r="J8" s="64"/>
@@ -28809,7 +28843,7 @@
       </c>
       <c r="C9" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61594864994839194</v>
+        <v>0.10157079219073684</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="68">
@@ -28853,7 +28887,7 @@
       </c>
       <c r="C10" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40714509925602338</v>
+        <v>0.45009394596846219</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="68">
@@ -28897,7 +28931,7 @@
       </c>
       <c r="C11" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24946503814429299</v>
+        <v>0.90417719381625117</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="68">
@@ -28912,7 +28946,7 @@
       </c>
       <c r="H11" s="69">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I11" s="64"/>
       <c r="J11" s="64"/>
@@ -28941,7 +28975,7 @@
       </c>
       <c r="C12" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10723410934097899</v>
+        <v>0.20570459642658467</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="68">
@@ -28956,7 +28990,7 @@
       </c>
       <c r="H12" s="69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" s="64"/>
       <c r="J12" s="64"/>
@@ -28985,7 +29019,7 @@
       </c>
       <c r="C13" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33832394140127942</v>
+        <v>0.57378153775867946</v>
       </c>
       <c r="D13" s="64"/>
       <c r="E13" s="68">
@@ -29000,7 +29034,7 @@
       </c>
       <c r="H13" s="69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I13" s="64"/>
       <c r="J13" s="64"/>
@@ -29029,7 +29063,7 @@
       </c>
       <c r="C14" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22242143719298935</v>
+        <v>0.87541356776789503</v>
       </c>
       <c r="D14" s="64"/>
       <c r="E14" s="68">
@@ -29044,7 +29078,7 @@
       </c>
       <c r="H14" s="69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I14" s="64"/>
       <c r="J14" s="64"/>
@@ -29073,7 +29107,7 @@
       </c>
       <c r="C15" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85332417985264708</v>
+        <v>0.61363648960139872</v>
       </c>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
@@ -29107,7 +29141,7 @@
       </c>
       <c r="C16" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92254115997156261</v>
+        <v>0.2614752814794471</v>
       </c>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
@@ -29141,7 +29175,7 @@
       </c>
       <c r="C17" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68857293659418373</v>
+        <v>0.86174561677473105</v>
       </c>
       <c r="D17" s="64"/>
       <c r="E17" s="64"/>
@@ -29175,7 +29209,7 @@
       </c>
       <c r="C18" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27673711437404036</v>
+        <v>0.76059018376651277</v>
       </c>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
@@ -29209,7 +29243,7 @@
       </c>
       <c r="C19" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59669461615654407</v>
+        <v>0.55726838561320491</v>
       </c>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -29243,7 +29277,7 @@
       </c>
       <c r="C20" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49398617734525385</v>
+        <v>0.23324647809705401</v>
       </c>
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
@@ -29277,7 +29311,7 @@
       </c>
       <c r="C21" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14228147452408202</v>
+        <v>0.90959402147628365</v>
       </c>
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
@@ -29311,7 +29345,7 @@
       </c>
       <c r="C22" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61458436498884939</v>
+        <v>0.79746492202669284</v>
       </c>
       <c r="D22" s="64"/>
       <c r="E22" s="64"/>
@@ -29345,7 +29379,7 @@
       </c>
       <c r="C23" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8749528462161731E-2</v>
+        <v>0.47755033905742483</v>
       </c>
       <c r="D23" s="64"/>
       <c r="E23" s="64"/>
@@ -29379,7 +29413,7 @@
       </c>
       <c r="C24" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91610217994533305</v>
+        <v>0.77272346154058913</v>
       </c>
       <c r="D24" s="64"/>
       <c r="E24" s="64"/>
@@ -29413,7 +29447,7 @@
       </c>
       <c r="C25" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81238062059487803</v>
+        <v>0.9302894352144947</v>
       </c>
       <c r="D25" s="64"/>
       <c r="E25" s="64"/>
@@ -29447,7 +29481,7 @@
       </c>
       <c r="C26" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15000823671556263</v>
+        <v>0.10154764903339075</v>
       </c>
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
@@ -29481,7 +29515,7 @@
       </c>
       <c r="C27" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22878622119825454</v>
+        <v>0.28227211471574376</v>
       </c>
       <c r="D27" s="64"/>
       <c r="E27" s="64"/>
@@ -29515,7 +29549,7 @@
       </c>
       <c r="C28" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68115672038900787</v>
+        <v>0.26325859832354026</v>
       </c>
       <c r="D28" s="64"/>
       <c r="E28" s="64"/>
@@ -29549,7 +29583,7 @@
       </c>
       <c r="C29" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65128568522641683</v>
+        <v>0.55704747450278358</v>
       </c>
       <c r="D29" s="64"/>
       <c r="E29" s="64"/>
@@ -29583,7 +29617,7 @@
       </c>
       <c r="C30" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66028043826414462</v>
+        <v>0.98702122300722694</v>
       </c>
       <c r="D30" s="64"/>
       <c r="E30" s="64"/>
@@ -29617,7 +29651,7 @@
       </c>
       <c r="C31" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52292304623434804</v>
+        <v>0.58105858822179424</v>
       </c>
       <c r="D31" s="64"/>
       <c r="E31" s="64"/>
@@ -29651,7 +29685,7 @@
       </c>
       <c r="C32" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7526437430933348E-2</v>
+        <v>0.65099849291233114</v>
       </c>
       <c r="D32" s="64"/>
       <c r="E32" s="64"/>
@@ -29685,7 +29719,7 @@
       </c>
       <c r="C33" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76747525031776653</v>
+        <v>0.84055849203180955</v>
       </c>
       <c r="D33" s="64"/>
       <c r="E33" s="64"/>
@@ -29719,7 +29753,7 @@
       </c>
       <c r="C34" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63985026288356883</v>
+        <v>0.85735369018938645</v>
       </c>
       <c r="D34" s="64"/>
       <c r="E34" s="64"/>
@@ -29753,7 +29787,7 @@
       </c>
       <c r="C35" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35876859420801144</v>
+        <v>2.2801501003708813E-2</v>
       </c>
       <c r="D35" s="64"/>
       <c r="E35" s="64"/>
@@ -29787,7 +29821,7 @@
       </c>
       <c r="C36" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45327327611471868</v>
+        <v>0.10889450831866909</v>
       </c>
       <c r="D36" s="64"/>
       <c r="E36" s="64"/>
@@ -29821,7 +29855,7 @@
       </c>
       <c r="C37" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56729423406322566</v>
+        <v>5.3430520738008469E-2</v>
       </c>
       <c r="D37" s="64"/>
       <c r="E37" s="64"/>
@@ -29855,7 +29889,7 @@
       </c>
       <c r="C38" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13054719645428992</v>
+        <v>0.41315360273368051</v>
       </c>
       <c r="D38" s="64"/>
       <c r="E38" s="64"/>
@@ -29889,7 +29923,7 @@
       </c>
       <c r="C39" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59494558147615006</v>
+        <v>0.83385769662984521</v>
       </c>
       <c r="D39" s="64"/>
       <c r="E39" s="64"/>
@@ -29923,7 +29957,7 @@
       </c>
       <c r="C40" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27664111189072427</v>
+        <v>0.32347666164516919</v>
       </c>
       <c r="D40" s="64"/>
       <c r="E40" s="64"/>
@@ -29957,7 +29991,7 @@
       </c>
       <c r="C41" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69900047096418172</v>
+        <v>0.54649553779045457</v>
       </c>
       <c r="D41" s="64"/>
       <c r="E41" s="64"/>
@@ -29991,7 +30025,7 @@
       </c>
       <c r="C42" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31255508613078842</v>
+        <v>0.8217697316800785</v>
       </c>
       <c r="D42" s="64"/>
       <c r="E42" s="64"/>
@@ -30025,7 +30059,7 @@
       </c>
       <c r="C43" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87668788582321322</v>
+        <v>0.15860730853838234</v>
       </c>
       <c r="D43" s="64"/>
       <c r="E43" s="64"/>
@@ -30059,7 +30093,7 @@
       </c>
       <c r="C44" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68344066044494678</v>
+        <v>0.86006717141842448</v>
       </c>
       <c r="D44" s="64"/>
       <c r="E44" s="64"/>
@@ -30093,7 +30127,7 @@
       </c>
       <c r="C45" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2435268185310191E-2</v>
+        <v>0.97373764238019944</v>
       </c>
       <c r="D45" s="64"/>
       <c r="E45" s="64"/>
@@ -30127,7 +30161,7 @@
       </c>
       <c r="C46" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4409355176896339</v>
+        <v>0.92211315507436109</v>
       </c>
       <c r="D46" s="64"/>
       <c r="E46" s="64"/>
@@ -30161,7 +30195,7 @@
       </c>
       <c r="C47" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90729115950310779</v>
+        <v>0.76206073712594535</v>
       </c>
       <c r="D47" s="64"/>
       <c r="E47" s="64"/>
@@ -30195,7 +30229,7 @@
       </c>
       <c r="C48" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11483497667240727</v>
+        <v>0.83460807637657908</v>
       </c>
       <c r="D48" s="64"/>
       <c r="E48" s="64"/>
@@ -30229,7 +30263,7 @@
       </c>
       <c r="C49" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76754482346060182</v>
+        <v>0.6608657084607954</v>
       </c>
       <c r="D49" s="64"/>
       <c r="E49" s="64"/>
@@ -30263,7 +30297,7 @@
       </c>
       <c r="C50" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57110317686427514</v>
+        <v>0.45709593100370438</v>
       </c>
       <c r="D50" s="64"/>
       <c r="E50" s="64"/>
@@ -30297,7 +30331,7 @@
       </c>
       <c r="C51" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76948411228617863</v>
+        <v>0.97486059265301817</v>
       </c>
       <c r="D51" s="64"/>
       <c r="E51" s="64"/>
@@ -30331,7 +30365,7 @@
       </c>
       <c r="C52" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62406851899368609</v>
+        <v>2.0051334681914446E-2</v>
       </c>
       <c r="D52" s="64"/>
       <c r="E52" s="64"/>
@@ -30365,7 +30399,7 @@
       </c>
       <c r="C53" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0525754404910805E-2</v>
+        <v>0.76050804408657846</v>
       </c>
       <c r="D53" s="64"/>
       <c r="E53" s="64"/>
@@ -30399,7 +30433,7 @@
       </c>
       <c r="C54" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17580037914470092</v>
+        <v>0.91119500819927202</v>
       </c>
       <c r="D54" s="64"/>
       <c r="E54" s="64"/>
